--- a/data/population2011-2022.xlsx
+++ b/data/population2011-2022.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C164A035-281A-432D-B5B9-1958045616E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D3C8CD-AB72-6548-AFD2-817A114D2253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -226,12 +226,6 @@
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -256,10 +250,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -545,161 +545,164 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="7">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>2010</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="11">
         <v>230710</v>
       </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2011</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="12">
         <v>235308</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>1.99</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="7">
+    <row r="4" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2012</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="11">
         <v>241107</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>2.46</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9">
+    <row r="5" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>2013</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="12">
         <v>247002</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <v>2.44</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="7">
+    <row r="6" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>2014</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="11">
         <v>253316</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>2.56</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9">
+    <row r="7" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>2015</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>258581</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>2.08</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="7">
+    <row r="8" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2016</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="11">
         <v>265355</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2.62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9">
+    <row r="9" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>2017</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>269578</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <v>1.59</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="7">
+    <row r="10" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>2018</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <v>274291</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>1.75</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="9">
+    <row r="11" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>2019</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="12">
         <v>278993</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>1.71</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7">
+    <row r="12" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>2020</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="11">
         <v>283506</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>1.62</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="9">
+    <row r="13" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>2021</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="12">
         <v>290877</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>2.6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="11">
+    <row r="14" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>2022</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="13">
         <v>298135</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="10">
         <v>2.56</v>
       </c>
     </row>
